--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="H2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="I2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="J2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.713374999999999</v>
+        <v>13.6639805</v>
       </c>
       <c r="N2">
-        <v>9.426749999999998</v>
+        <v>27.327961</v>
       </c>
       <c r="O2">
-        <v>0.05587567929323027</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P2">
-        <v>0.0419151680218315</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q2">
-        <v>70.65073392562499</v>
+        <v>281.127407888331</v>
       </c>
       <c r="R2">
-        <v>282.6029357025</v>
+        <v>1124.509631553324</v>
       </c>
       <c r="S2">
-        <v>0.003099673281522027</v>
+        <v>0.009433329208533091</v>
       </c>
       <c r="T2">
-        <v>0.00163208909475314</v>
+        <v>0.005587894472518257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="H3">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="I3">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="J3">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>129.257158</v>
       </c>
       <c r="O3">
-        <v>0.5107685757206811</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P3">
-        <v>0.5747299435748717</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q3">
-        <v>645.8297276608567</v>
+        <v>886.4603248800122</v>
       </c>
       <c r="R3">
-        <v>3874.97836596514</v>
+        <v>5318.761949280072</v>
       </c>
       <c r="S3">
-        <v>0.02833461225399855</v>
+        <v>0.02974548848761839</v>
       </c>
       <c r="T3">
-        <v>0.02237878356703887</v>
+        <v>0.02642990301111813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="H4">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="I4">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="J4">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1358286666666667</v>
+        <v>50.7431145</v>
       </c>
       <c r="N4">
-        <v>0.407486</v>
+        <v>101.486229</v>
       </c>
       <c r="O4">
-        <v>0.001610209036517091</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P4">
-        <v>0.00181184863887809</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q4">
-        <v>2.035992253563334</v>
+        <v>1044.006191868159</v>
       </c>
       <c r="R4">
-        <v>12.21595352138</v>
+        <v>4176.024767472637</v>
       </c>
       <c r="S4">
-        <v>8.932548098367485E-05</v>
+        <v>0.03503199555537927</v>
       </c>
       <c r="T4">
-        <v>7.054960159806702E-05</v>
+        <v>0.02075143250042775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="H5">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="I5">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="J5">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>23.4499775</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N5">
-        <v>46.899955</v>
+        <v>0.846946</v>
       </c>
       <c r="O5">
-        <v>0.2779926108623791</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P5">
-        <v>0.2085362923638938</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q5">
-        <v>351.5014444881625</v>
+        <v>5.808452219844</v>
       </c>
       <c r="R5">
-        <v>1406.00577795265</v>
+        <v>34.850713319064</v>
       </c>
       <c r="S5">
-        <v>0.01542149069595411</v>
+        <v>0.0001949046604647957</v>
       </c>
       <c r="T5">
-        <v>0.008119967655863689</v>
+        <v>0.0001731795823303995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="H6">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="I6">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="J6">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>11.373275</v>
+        <v>0.024915</v>
       </c>
       <c r="N6">
-        <v>34.119825</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O6">
-        <v>0.1348268420004166</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P6">
-        <v>0.1517106317395165</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q6">
-        <v>170.478738884125</v>
+        <v>0.5126097309300001</v>
       </c>
       <c r="R6">
-        <v>1022.87243330475</v>
+        <v>3.075658385580001</v>
       </c>
       <c r="S6">
-        <v>0.007479446604800688</v>
+        <v>1.720080010584046E-05</v>
       </c>
       <c r="T6">
-        <v>0.005907295122644133</v>
+        <v>1.528351026073175E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.989415</v>
+        <v>58.255493</v>
       </c>
       <c r="H7">
-        <v>29.97883</v>
+        <v>174.766479</v>
       </c>
       <c r="I7">
-        <v>0.05547446260572933</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="J7">
-        <v>0.03893791130463959</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.596503666666667</v>
+        <v>13.6639805</v>
       </c>
       <c r="N7">
-        <v>4.789511</v>
+        <v>27.327961</v>
       </c>
       <c r="O7">
-        <v>0.01892608308677601</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P7">
-        <v>0.02129611566100833</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q7">
-        <v>23.93065600868834</v>
+        <v>796.0019203698865</v>
       </c>
       <c r="R7">
-        <v>143.58393605213</v>
+        <v>4776.01152221932</v>
       </c>
       <c r="S7">
-        <v>0.001049914288470282</v>
+        <v>0.02671012485718352</v>
       </c>
       <c r="T7">
-        <v>0.0008292262627416883</v>
+        <v>0.02373287665738175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>174.766479</v>
       </c>
       <c r="I8">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="J8">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.713374999999999</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N8">
-        <v>9.426749999999998</v>
+        <v>129.257158</v>
       </c>
       <c r="O8">
-        <v>0.05587567929323027</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P8">
-        <v>0.0419151680218315</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q8">
-        <v>274.5799843188749</v>
+        <v>2509.979821022965</v>
       </c>
       <c r="R8">
-        <v>1647.47990591325</v>
+        <v>22589.81838920668</v>
       </c>
       <c r="S8">
-        <v>0.01204670063201222</v>
+        <v>0.08422325712151736</v>
       </c>
       <c r="T8">
-        <v>0.009514529569843245</v>
+        <v>0.1122529481031426</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>174.766479</v>
       </c>
       <c r="I9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="J9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.08571933333334</v>
+        <v>50.7431145</v>
       </c>
       <c r="N9">
-        <v>129.257158</v>
+        <v>101.486229</v>
       </c>
       <c r="O9">
-        <v>0.5107685757206811</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P9">
-        <v>0.5747299435748717</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q9">
-        <v>2509.979821022965</v>
+        <v>2956.065151552949</v>
       </c>
       <c r="R9">
-        <v>22589.81838920668</v>
+        <v>17736.39090931769</v>
       </c>
       <c r="S9">
-        <v>0.1101208289863565</v>
+        <v>0.09919180753641735</v>
       </c>
       <c r="T9">
-        <v>0.1304607687596362</v>
+        <v>0.08813537736239446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>174.766479</v>
       </c>
       <c r="I10">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="J10">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1358286666666667</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N10">
-        <v>0.407486</v>
+        <v>0.846946</v>
       </c>
       <c r="O10">
-        <v>0.001610209036517091</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P10">
-        <v>0.00181184863887809</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q10">
-        <v>7.912765940199335</v>
+        <v>16.44641892479267</v>
       </c>
       <c r="R10">
-        <v>71.21489346179401</v>
+        <v>148.017770323134</v>
       </c>
       <c r="S10">
-        <v>0.0003471583068562784</v>
+        <v>0.000551865380840577</v>
       </c>
       <c r="T10">
-        <v>0.0004112804090802392</v>
+        <v>0.0007355274311706915</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>174.766479</v>
       </c>
       <c r="I11">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="J11">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>23.4499775</v>
+        <v>0.024915</v>
       </c>
       <c r="N11">
-        <v>46.899955</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O11">
-        <v>0.2779926108623791</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P11">
-        <v>0.2085362923638938</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q11">
-        <v>1366.090000101407</v>
+        <v>1.451435608095</v>
       </c>
       <c r="R11">
-        <v>8196.540000608446</v>
+        <v>13.062920472855</v>
       </c>
       <c r="S11">
-        <v>0.05993473016043121</v>
+        <v>4.870343314795622E-05</v>
       </c>
       <c r="T11">
-        <v>0.04733667580786777</v>
+        <v>6.491204615507169E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>58.255493</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="H12">
-        <v>174.766479</v>
+        <v>178.607307</v>
       </c>
       <c r="I12">
-        <v>0.2155982850569436</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="J12">
-        <v>0.2269949046819425</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.373275</v>
+        <v>13.6639805</v>
       </c>
       <c r="N12">
-        <v>34.119825</v>
+        <v>27.327961</v>
       </c>
       <c r="O12">
-        <v>0.1348268420004166</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P12">
-        <v>0.1517106317395165</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q12">
-        <v>662.5557421495749</v>
+        <v>813.4955866685045</v>
       </c>
       <c r="R12">
-        <v>5963.001679346175</v>
+        <v>4880.973520011027</v>
       </c>
       <c r="S12">
-        <v>0.02906843591493332</v>
+        <v>0.02729713099258187</v>
       </c>
       <c r="T12">
-        <v>0.03443754039094882</v>
+        <v>0.02425445206307621</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>58.255493</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="H13">
-        <v>174.766479</v>
+        <v>178.607307</v>
       </c>
       <c r="I13">
-        <v>0.2155982850569436</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="J13">
-        <v>0.2269949046819425</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.596503666666667</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N13">
-        <v>4.789511</v>
+        <v>129.257158</v>
       </c>
       <c r="O13">
-        <v>0.01892608308677601</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P13">
-        <v>0.02129611566100833</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q13">
-        <v>93.00510817797434</v>
+        <v>2565.141433428167</v>
       </c>
       <c r="R13">
-        <v>837.045973601769</v>
+        <v>23086.27290085351</v>
       </c>
       <c r="S13">
-        <v>0.004080431056354134</v>
+        <v>0.08607422445835729</v>
       </c>
       <c r="T13">
-        <v>0.004834109744566207</v>
+        <v>0.1147199215675281</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="H14">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="I14">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="J14">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.713374999999999</v>
+        <v>50.7431145</v>
       </c>
       <c r="N14">
-        <v>9.426749999999998</v>
+        <v>101.486229</v>
       </c>
       <c r="O14">
-        <v>0.05587567929323027</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P14">
-        <v>0.0419151680218315</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q14">
-        <v>377.9133029148749</v>
+        <v>3021.030343212551</v>
       </c>
       <c r="R14">
-        <v>2267.479817489249</v>
+        <v>18126.1820592753</v>
       </c>
       <c r="S14">
-        <v>0.0165802632568564</v>
+        <v>0.1013717374287881</v>
       </c>
       <c r="T14">
-        <v>0.01309515442045108</v>
+        <v>0.09007232103203291</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="H15">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="I15">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="J15">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>43.08571933333334</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N15">
-        <v>129.257158</v>
+        <v>0.846946</v>
       </c>
       <c r="O15">
-        <v>0.5107685757206811</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P15">
-        <v>0.5747299435748717</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q15">
-        <v>3454.566314312629</v>
+        <v>16.80786047049133</v>
       </c>
       <c r="R15">
-        <v>31091.09682881366</v>
+        <v>151.270744234422</v>
       </c>
       <c r="S15">
-        <v>0.1515628544636687</v>
+        <v>0.0005639936792367651</v>
       </c>
       <c r="T15">
-        <v>0.1795573706694931</v>
+        <v>0.0007516920547791379</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="H16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="I16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="J16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1358286666666667</v>
+        <v>0.024915</v>
       </c>
       <c r="N16">
-        <v>0.407486</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O16">
-        <v>0.001610209036517091</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P16">
-        <v>0.00181184863887809</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q16">
-        <v>10.89059539088733</v>
+        <v>1.483333684635</v>
       </c>
       <c r="R16">
-        <v>98.015358517986</v>
+        <v>13.350003161715</v>
       </c>
       <c r="S16">
-        <v>0.000477805192916144</v>
+        <v>4.97737843434552E-05</v>
       </c>
       <c r="T16">
-        <v>0.0005660585137159605</v>
+        <v>6.633861265590329E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>80.178917</v>
+        <v>31.770234</v>
       </c>
       <c r="H17">
-        <v>240.536751</v>
+        <v>63.540468</v>
       </c>
       <c r="I17">
-        <v>0.2967348847759819</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="J17">
-        <v>0.3124204205415681</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.4499775</v>
+        <v>13.6639805</v>
       </c>
       <c r="N17">
-        <v>46.899955</v>
+        <v>27.327961</v>
       </c>
       <c r="O17">
-        <v>0.2779926108623791</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P17">
-        <v>0.2085362923638938</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q17">
-        <v>1880.193799624367</v>
+        <v>434.1078578564371</v>
       </c>
       <c r="R17">
-        <v>11281.1627977462</v>
+        <v>1736.431431425748</v>
       </c>
       <c r="S17">
-        <v>0.08249010535282243</v>
+        <v>0.01456664209986065</v>
       </c>
       <c r="T17">
-        <v>0.06515099615850711</v>
+        <v>0.008628646056297283</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>80.178917</v>
+        <v>31.770234</v>
       </c>
       <c r="H18">
-        <v>240.536751</v>
+        <v>63.540468</v>
       </c>
       <c r="I18">
-        <v>0.2967348847759819</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="J18">
-        <v>0.3124204205415681</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.373275</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N18">
-        <v>34.119825</v>
+        <v>129.257158</v>
       </c>
       <c r="O18">
-        <v>0.1348268420004166</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P18">
-        <v>0.1517106317395165</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q18">
-        <v>911.8968722431749</v>
+        <v>1368.843385278324</v>
       </c>
       <c r="R18">
-        <v>8207.071850188575</v>
+        <v>8213.060311669944</v>
       </c>
       <c r="S18">
-        <v>0.04000782742570314</v>
+        <v>0.04593202201537927</v>
       </c>
       <c r="T18">
-        <v>0.04739749936868671</v>
+        <v>0.04081220207482347</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>80.178917</v>
+        <v>31.770234</v>
       </c>
       <c r="H19">
-        <v>240.536751</v>
+        <v>63.540468</v>
       </c>
       <c r="I19">
-        <v>0.2967348847759819</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="J19">
-        <v>0.3124204205415681</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.596503666666667</v>
+        <v>50.7431145</v>
       </c>
       <c r="N19">
-        <v>4.789511</v>
+        <v>101.486229</v>
       </c>
       <c r="O19">
-        <v>0.01892608308677601</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P19">
-        <v>0.02129611566100833</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q19">
-        <v>128.0059349798623</v>
+        <v>1612.120621553793</v>
       </c>
       <c r="R19">
-        <v>1152.053414818761</v>
+        <v>6448.482486215173</v>
       </c>
       <c r="S19">
-        <v>0.00561602908401514</v>
+        <v>0.05409527538141241</v>
       </c>
       <c r="T19">
-        <v>0.006653341410714096</v>
+        <v>0.03204369142759436</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="H20">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="I20">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="J20">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>4.713374999999999</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N20">
-        <v>9.426749999999998</v>
+        <v>0.846946</v>
       </c>
       <c r="O20">
-        <v>0.05587567929323027</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P20">
-        <v>0.0419151680218315</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q20">
-        <v>121.17407456325</v>
+        <v>8.969224201788</v>
       </c>
       <c r="R20">
-        <v>484.6962982529999</v>
+        <v>53.815345210728</v>
       </c>
       <c r="S20">
-        <v>0.005316293553755057</v>
+        <v>0.0003009654778100367</v>
       </c>
       <c r="T20">
-        <v>0.002799219125871731</v>
+        <v>0.0002674183142605026</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="H21">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="I21">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="J21">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>43.08571933333334</v>
+        <v>0.024915</v>
       </c>
       <c r="N21">
-        <v>129.257158</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O21">
-        <v>0.5107685757206811</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P21">
-        <v>0.5747299435748717</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q21">
-        <v>1107.671714452722</v>
+        <v>0.7915553801100002</v>
       </c>
       <c r="R21">
-        <v>6646.030286716328</v>
+        <v>4.749332280660001</v>
       </c>
       <c r="S21">
-        <v>0.04859709485256312</v>
+        <v>2.656091963231563E-05</v>
       </c>
       <c r="T21">
-        <v>0.0383821687038931</v>
+        <v>2.360030261598882E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.708558</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="H22">
-        <v>51.417116</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="I22">
-        <v>0.09514503664207198</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="J22">
-        <v>0.0667829632560165</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1358286666666667</v>
+        <v>13.6639805</v>
       </c>
       <c r="N22">
-        <v>0.407486</v>
+        <v>27.327961</v>
       </c>
       <c r="O22">
-        <v>0.001610209036517091</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P22">
-        <v>0.00181184863887809</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q22">
-        <v>3.491959155062667</v>
+        <v>429.9437643537223</v>
       </c>
       <c r="R22">
-        <v>20.951754930376</v>
+        <v>2579.662586122333</v>
       </c>
       <c r="S22">
-        <v>0.0001532033977808141</v>
+        <v>0.01442691447543128</v>
       </c>
       <c r="T22">
-        <v>0.000121000621075659</v>
+        <v>0.01281881622129226</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.708558</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="H23">
-        <v>51.417116</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="I23">
-        <v>0.09514503664207198</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="J23">
-        <v>0.0667829632560165</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.4499775</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N23">
-        <v>46.899955</v>
+        <v>129.257158</v>
       </c>
       <c r="O23">
-        <v>0.2779926108623791</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P23">
-        <v>0.2085362923638938</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q23">
-        <v>602.8651066574449</v>
+        <v>1355.713026673397</v>
       </c>
       <c r="R23">
-        <v>2411.46042662978</v>
+        <v>12201.41724006057</v>
       </c>
       <c r="S23">
-        <v>0.02644961714672632</v>
+        <v>0.04549142820676859</v>
       </c>
       <c r="T23">
-        <v>0.01392667155048384</v>
+        <v>0.06063107868488749</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.708558</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="H24">
-        <v>51.417116</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="I24">
-        <v>0.09514503664207198</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="J24">
-        <v>0.0667829632560165</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.373275</v>
+        <v>50.7431145</v>
       </c>
       <c r="N24">
-        <v>34.119825</v>
+        <v>101.486229</v>
       </c>
       <c r="O24">
-        <v>0.1348268420004166</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P24">
-        <v>0.1517106317395165</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q24">
-        <v>292.39049998745</v>
+        <v>1596.65667432429</v>
       </c>
       <c r="R24">
-        <v>1754.3429999247</v>
+        <v>9579.940045945739</v>
       </c>
       <c r="S24">
-        <v>0.01282810482246449</v>
+        <v>0.05357637718441685</v>
       </c>
       <c r="T24">
-        <v>0.01013168554500718</v>
+        <v>0.04760447801220812</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.708558</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="H25">
-        <v>51.417116</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="I25">
-        <v>0.09514503664207198</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="J25">
-        <v>0.0667829632560165</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>1.596503666666667</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N25">
-        <v>4.789511</v>
+        <v>0.846946</v>
       </c>
       <c r="O25">
-        <v>0.01892608308677601</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P25">
-        <v>0.02129611566100833</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q25">
-        <v>41.04380711171267</v>
+        <v>8.883188698059778</v>
       </c>
       <c r="R25">
-        <v>246.262842670276</v>
+        <v>79.948698282538</v>
       </c>
       <c r="S25">
-        <v>0.001800722868782202</v>
+        <v>0.0002980785261734582</v>
       </c>
       <c r="T25">
-        <v>0.001422217709684996</v>
+        <v>0.0003972797357021475</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="H26">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="I26">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="J26">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>4.713374999999999</v>
+        <v>0.024915</v>
       </c>
       <c r="N26">
-        <v>9.426749999999998</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O26">
-        <v>0.05587567929323027</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P26">
-        <v>0.0419151680218315</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q26">
-        <v>55.26909181049999</v>
+        <v>0.7839625421650002</v>
       </c>
       <c r="R26">
-        <v>331.6145508629999</v>
+        <v>7.055662879485001</v>
       </c>
       <c r="S26">
-        <v>0.0024248315291295</v>
+        <v>2.630613928023172E-05</v>
       </c>
       <c r="T26">
-        <v>0.001915141082238146</v>
+        <v>3.506088209290441E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.726012</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="H27">
-        <v>35.178036</v>
+        <v>224.551117</v>
       </c>
       <c r="I27">
-        <v>0.04339690469630291</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="J27">
-        <v>0.04569088405516221</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>43.08571933333334</v>
+        <v>13.6639805</v>
       </c>
       <c r="N27">
-        <v>129.257158</v>
+        <v>27.327961</v>
       </c>
       <c r="O27">
-        <v>0.5107685757206811</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P27">
-        <v>0.5747299435748717</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q27">
-        <v>505.2236619312987</v>
+        <v>1022.754027980406</v>
       </c>
       <c r="R27">
-        <v>4547.012957381688</v>
+        <v>6136.524167882437</v>
       </c>
       <c r="S27">
-        <v>0.02216577520241678</v>
+        <v>0.0343188717093169</v>
       </c>
       <c r="T27">
-        <v>0.02625991921490938</v>
+        <v>0.03049351336441525</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.726012</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="H28">
-        <v>35.178036</v>
+        <v>224.551117</v>
       </c>
       <c r="I28">
-        <v>0.04339690469630291</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="J28">
-        <v>0.04569088405516221</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1358286666666667</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N28">
-        <v>0.407486</v>
+        <v>129.257158</v>
       </c>
       <c r="O28">
-        <v>0.001610209036517091</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P28">
-        <v>0.00181184863887809</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q28">
-        <v>1.592728575277333</v>
+        <v>3224.982134349498</v>
       </c>
       <c r="R28">
-        <v>14.334557177496</v>
+        <v>29024.83920914548</v>
       </c>
       <c r="S28">
-        <v>6.987808809885796E-05</v>
+        <v>0.1082154116294517</v>
       </c>
       <c r="T28">
-        <v>8.278496608448227E-05</v>
+        <v>0.1442297460435974</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.726012</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="H29">
-        <v>35.178036</v>
+        <v>224.551117</v>
       </c>
       <c r="I29">
-        <v>0.04339690469630291</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="J29">
-        <v>0.04569088405516221</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.4499775</v>
+        <v>50.7431145</v>
       </c>
       <c r="N29">
-        <v>46.899955</v>
+        <v>101.486229</v>
       </c>
       <c r="O29">
-        <v>0.2779926108623791</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P29">
-        <v>0.2085362923638938</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q29">
-        <v>274.97471756473</v>
+        <v>3798.141013677965</v>
       </c>
       <c r="R29">
-        <v>1649.84830538838</v>
+        <v>22788.84608206779</v>
       </c>
       <c r="S29">
-        <v>0.01206401883987109</v>
+        <v>0.1274479597403317</v>
       </c>
       <c r="T29">
-        <v>0.009528207555692081</v>
+        <v>0.1132419531891021</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.726012</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="H30">
-        <v>35.178036</v>
+        <v>224.551117</v>
       </c>
       <c r="I30">
-        <v>0.04339690469630291</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="J30">
-        <v>0.04569088405516221</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>11.373275</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N30">
-        <v>34.119825</v>
+        <v>0.846946</v>
       </c>
       <c r="O30">
-        <v>0.1348268420004166</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P30">
-        <v>0.1517106317395165</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q30">
-        <v>133.3631591293</v>
+        <v>21.13140781540911</v>
       </c>
       <c r="R30">
-        <v>1200.2684321637</v>
+        <v>190.182670338682</v>
       </c>
       <c r="S30">
-        <v>0.00585106761279557</v>
+        <v>0.0007090718335143776</v>
       </c>
       <c r="T30">
-        <v>0.00693179288474566</v>
+        <v>0.0009450525478259442</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.726012</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="H31">
-        <v>35.178036</v>
+        <v>224.551117</v>
       </c>
       <c r="I31">
-        <v>0.04339690469630291</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="J31">
-        <v>0.04569088405516221</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>1.596503666666667</v>
+        <v>0.024915</v>
       </c>
       <c r="N31">
-        <v>4.789511</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O31">
-        <v>0.01892608308677601</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P31">
-        <v>0.02129611566100833</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q31">
-        <v>18.72062115337733</v>
+        <v>1.864897026685</v>
       </c>
       <c r="R31">
-        <v>168.485590380396</v>
+        <v>16.784073240165</v>
       </c>
       <c r="S31">
-        <v>0.000821333423991129</v>
+        <v>6.257727670481017E-05</v>
       </c>
       <c r="T31">
-        <v>0.0009730383514924555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>79.34548433333335</v>
-      </c>
-      <c r="H32">
-        <v>238.036453</v>
-      </c>
-      <c r="I32">
-        <v>0.2936504262229702</v>
-      </c>
-      <c r="J32">
-        <v>0.3091729161606711</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>4.713374999999999</v>
-      </c>
-      <c r="N32">
-        <v>9.426749999999998</v>
-      </c>
-      <c r="O32">
-        <v>0.05587567929323027</v>
-      </c>
-      <c r="P32">
-        <v>0.0419151680218315</v>
-      </c>
-      <c r="Q32">
-        <v>373.985022219625</v>
-      </c>
-      <c r="R32">
-        <v>2243.91013331775</v>
-      </c>
-      <c r="S32">
-        <v>0.01640791703995506</v>
-      </c>
-      <c r="T32">
-        <v>0.01295903472867415</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>79.34548433333335</v>
-      </c>
-      <c r="H33">
-        <v>238.036453</v>
-      </c>
-      <c r="I33">
-        <v>0.2936504262229702</v>
-      </c>
-      <c r="J33">
-        <v>0.3091729161606711</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>43.08571933333334</v>
-      </c>
-      <c r="N33">
-        <v>129.257158</v>
-      </c>
-      <c r="O33">
-        <v>0.5107685757206811</v>
-      </c>
-      <c r="P33">
-        <v>0.5747299435748717</v>
-      </c>
-      <c r="Q33">
-        <v>3418.657268353398</v>
-      </c>
-      <c r="R33">
-        <v>30767.91541518058</v>
-      </c>
-      <c r="S33">
-        <v>0.1499874099616774</v>
-      </c>
-      <c r="T33">
-        <v>0.177690932659901</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>79.34548433333335</v>
-      </c>
-      <c r="H34">
-        <v>238.036453</v>
-      </c>
-      <c r="I34">
-        <v>0.2936504262229702</v>
-      </c>
-      <c r="J34">
-        <v>0.3091729161606711</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.1358286666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.407486</v>
-      </c>
-      <c r="O34">
-        <v>0.001610209036517091</v>
-      </c>
-      <c r="P34">
-        <v>0.00181184863887809</v>
-      </c>
-      <c r="Q34">
-        <v>10.77739134301756</v>
-      </c>
-      <c r="R34">
-        <v>96.99652208715801</v>
-      </c>
-      <c r="S34">
-        <v>0.000472838569881322</v>
-      </c>
-      <c r="T34">
-        <v>0.0005601745273236817</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>79.34548433333335</v>
-      </c>
-      <c r="H35">
-        <v>238.036453</v>
-      </c>
-      <c r="I35">
-        <v>0.2936504262229702</v>
-      </c>
-      <c r="J35">
-        <v>0.3091729161606711</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>23.4499775</v>
-      </c>
-      <c r="N35">
-        <v>46.899955</v>
-      </c>
-      <c r="O35">
-        <v>0.2779926108623791</v>
-      </c>
-      <c r="P35">
-        <v>0.2085362923638938</v>
-      </c>
-      <c r="Q35">
-        <v>1860.649822343269</v>
-      </c>
-      <c r="R35">
-        <v>11163.89893405962</v>
-      </c>
-      <c r="S35">
-        <v>0.08163264866657391</v>
-      </c>
-      <c r="T35">
-        <v>0.06447377363547935</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>79.34548433333335</v>
-      </c>
-      <c r="H36">
-        <v>238.036453</v>
-      </c>
-      <c r="I36">
-        <v>0.2936504262229702</v>
-      </c>
-      <c r="J36">
-        <v>0.3091729161606711</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>11.373275</v>
-      </c>
-      <c r="N36">
-        <v>34.119825</v>
-      </c>
-      <c r="O36">
-        <v>0.1348268420004166</v>
-      </c>
-      <c r="P36">
-        <v>0.1517106317395165</v>
-      </c>
-      <c r="Q36">
-        <v>902.4180133311918</v>
-      </c>
-      <c r="R36">
-        <v>8121.762119980725</v>
-      </c>
-      <c r="S36">
-        <v>0.0395919596197194</v>
-      </c>
-      <c r="T36">
-        <v>0.04690481842748398</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>79.34548433333335</v>
-      </c>
-      <c r="H37">
-        <v>238.036453</v>
-      </c>
-      <c r="I37">
-        <v>0.2936504262229702</v>
-      </c>
-      <c r="J37">
-        <v>0.3091729161606711</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1.596503666666667</v>
-      </c>
-      <c r="N37">
-        <v>4.789511</v>
-      </c>
-      <c r="O37">
-        <v>0.01892608308677601</v>
-      </c>
-      <c r="P37">
-        <v>0.02129611566100833</v>
-      </c>
-      <c r="Q37">
-        <v>126.6753566716093</v>
-      </c>
-      <c r="R37">
-        <v>1140.078210044483</v>
-      </c>
-      <c r="S37">
-        <v>0.005557652365163123</v>
-      </c>
-      <c r="T37">
-        <v>0.006584182181808882</v>
+        <v>8.340313631240977E-05</v>
       </c>
     </row>
   </sheetData>
